--- a/부동산공시가격_Temp.xlsx
+++ b/부동산공시가격_Temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA06_부동산공시가격_양영주\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D3652-3979-420B-B975-782886E3AA53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF559101-FF28-4A74-8606-A569475BD588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>고객번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,19 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A0003</t>
-  </si>
-  <si>
-    <t>A0004</t>
-  </si>
-  <si>
-    <t>A0005</t>
-  </si>
-  <si>
     <t>A0006</t>
   </si>
   <si>
@@ -84,25 +71,13 @@
     <t>A0009</t>
   </si>
   <si>
-    <t>A0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A0010</t>
   </si>
   <si>
-    <t>서울특별시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충청남도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경기도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경상북도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -111,82 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우각로93번길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천일빌라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원인재로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연수주공1차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강서구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡서로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경동미르웰마곡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동명없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전광역시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유성구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화원로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봉명시티빌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과천시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사기막길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해든팰리스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,19 +169,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정보없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기준가격(\)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일 가격(\)</t>
+    <t>기준가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시기준일 가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,326 +667,167 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
+        <v>603</v>
       </c>
       <c r="H2" s="1">
-        <v>203</v>
+        <v>502</v>
       </c>
       <c r="I2" s="4">
-        <v>54800000</v>
+        <v>879000000</v>
       </c>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1">
-        <v>101</v>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="1">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="I3" s="4">
-        <v>61900000</v>
+        <v>103000000</v>
       </c>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>602</v>
+        <v>107</v>
       </c>
       <c r="I4" s="4">
-        <v>186000000</v>
+        <v>136000000</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1">
-        <v>305</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>63</v>
+        <v>204</v>
+      </c>
+      <c r="I5" s="4">
+        <v>61000000</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="I6" s="4">
-        <v>343000000</v>
+        <v>158000000</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1">
-        <v>603</v>
-      </c>
-      <c r="H7" s="1">
-        <v>502</v>
-      </c>
-      <c r="I7" s="4">
-        <v>879000000</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>305</v>
-      </c>
-      <c r="I8" s="4">
-        <v>103000000</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1">
-        <v>107</v>
-      </c>
-      <c r="I9" s="4">
-        <v>136000000</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1">
-        <v>204</v>
-      </c>
-      <c r="I10" s="4">
-        <v>61000000</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1">
-        <v>105</v>
-      </c>
-      <c r="I11" s="4">
-        <v>158000000</v>
-      </c>
-      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/부동산공시가격_Temp.xlsx
+++ b/부동산공시가격_Temp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\UiPath\RPA06_부동산공시가격_양영주\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjoo\Documents\UiPath\RPA06_부동산공시가격_양영주\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF559101-FF28-4A74-8606-A569475BD588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489B2F84-425A-484F-9C97-A717D552F3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C4D437-1CB2-468E-BEE9-DB56AB4DF829}"/>
   </bookViews>
   <sheets>
     <sheet name="회원목록" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>고객번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>A0004</t>
+  </si>
+  <si>
+    <t>A0005</t>
+  </si>
+  <si>
     <t>A0006</t>
   </si>
   <si>
@@ -71,13 +84,25 @@
     <t>A0009</t>
   </si>
   <si>
+    <t>A0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A0010</t>
   </si>
   <si>
+    <t>서울특별시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>충청남도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>경기도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>경상북도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +111,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인천광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우각로93번길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천일빌라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원인재로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연수주공1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강서구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마곡서로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경동미르웰마곡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유성구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화원로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉명시티빌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사기막길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해든팰리스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>변동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,15 +270,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>정보없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RPA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기준가격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공시기준일 가격</t>
+    <t>기준가격_(원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공시기준일 가격_(원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,29 +724,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486F02DF-D866-446D-A5ED-D44204B2CBDF}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,171 +772,329 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1">
+        <v>203</v>
+      </c>
+      <c r="I2" s="4">
+        <v>54800000</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1">
+        <v>111</v>
+      </c>
+      <c r="I3" s="4">
+        <v>61900000</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1">
+        <v>602</v>
+      </c>
+      <c r="I4" s="4">
+        <v>186000000</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1">
+        <v>305</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>202</v>
+      </c>
+      <c r="I6" s="4">
+        <v>343000000</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>603</v>
+      </c>
+      <c r="H7" s="1">
+        <v>502</v>
+      </c>
+      <c r="I7" s="4">
+        <v>879000000</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>305</v>
+      </c>
+      <c r="I8" s="4">
+        <v>103000000</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>107</v>
+      </c>
+      <c r="I9" s="4">
+        <v>136000000</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1">
+        <v>204</v>
+      </c>
+      <c r="I10" s="4">
+        <v>61000000</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1">
-        <v>603</v>
-      </c>
-      <c r="H2" s="1">
-        <v>502</v>
-      </c>
-      <c r="I2" s="4">
-        <v>879000000</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1">
-        <v>305</v>
-      </c>
-      <c r="I3" s="4">
-        <v>103000000</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>107</v>
-      </c>
-      <c r="I4" s="4">
-        <v>136000000</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>204</v>
-      </c>
-      <c r="I5" s="4">
-        <v>61000000</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
         <v>105</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I11" s="4">
         <v>158000000</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>